--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,316 +52,304 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>great</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>rice</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>highly</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>maker</t>
+    <t>makes</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>new</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>many</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>fast</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
   </si>
   <si>
     <t>buy</t>
@@ -728,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -797,13 +785,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -815,31 +803,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>0.978494623655914</v>
+      </c>
+      <c r="L3">
+        <v>91</v>
+      </c>
+      <c r="M3">
+        <v>91</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>0.956989247311828</v>
-      </c>
-      <c r="L3">
-        <v>89</v>
-      </c>
-      <c r="M3">
-        <v>89</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -847,13 +835,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -865,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.8840579710144928</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -889,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -897,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -915,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -939,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -947,13 +935,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4339622641509434</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -965,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8730650154798761</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L6">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M6">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -989,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -997,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3875968992248062</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1015,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1039,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1047,37 +1035,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3775510204081632</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1089,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1097,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1115,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K9">
         <v>0.7241379310344828</v>
@@ -1147,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2948717948717949</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1165,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L10">
         <v>55</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.7152542372881356</v>
-      </c>
-      <c r="L10">
-        <v>211</v>
-      </c>
       <c r="M10">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1189,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1197,13 +1185,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1525423728813559</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1215,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1239,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1247,115 +1235,187 @@
         <v>17</v>
       </c>
       <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1844660194174757</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>84</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0.6986301369863014</v>
+      </c>
+      <c r="L13">
+        <v>51</v>
+      </c>
+      <c r="M13">
+        <v>51</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.1525423728813559</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>0.1513513513513514</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>28</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>157</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L12">
-        <v>51</v>
-      </c>
-      <c r="M12">
-        <v>51</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.6619718309859155</v>
-      </c>
-      <c r="L13">
-        <v>47</v>
-      </c>
-      <c r="M13">
-        <v>47</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L15">
         <v>30</v>
       </c>
-      <c r="K14">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L14">
-        <v>44</v>
-      </c>
-      <c r="M14">
-        <v>44</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15">
-        <v>0.6412520064205457</v>
-      </c>
-      <c r="L15">
-        <v>799</v>
-      </c>
       <c r="M15">
-        <v>799</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,21 +1427,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>447</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>132</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>65</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.6222222222222222</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.6136363636363636</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1445,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.5961538461538461</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L19">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.5846153846153846</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1497,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.578125</v>
+      </c>
+      <c r="L21">
         <v>37</v>
       </c>
-      <c r="K21">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="L21">
-        <v>66</v>
-      </c>
       <c r="M21">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1523,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.5542168674698795</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1549,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5526315789473685</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1575,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5269461077844312</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L24">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1601,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.52</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1627,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5142857142857142</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1653,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1679,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.4736842105263158</v>
+        <v>0.48</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1705,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.46875</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1736,16 +1820,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.4583333333333333</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1757,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.4518072289156627</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M31">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1783,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.443609022556391</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L32">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1809,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4320987654320987</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1835,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.4202334630350195</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L34">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="M34">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1861,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.4102564102564102</v>
+        <v>0.4191176470588235</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1887,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.3946078431372549</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1913,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>247</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.392156862745098</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1939,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.3902439024390244</v>
+        <v>0.3741007194244604</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1965,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.360655737704918</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1991,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.3589041095890411</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L40">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2017,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>468</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.3492063492063492</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2043,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.3469387755102041</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2069,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.3265306122448979</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2095,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.3157894736842105</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L44">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2121,21 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>143</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.2972972972972973</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2147,21 +2231,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.297029702970297</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2173,21 +2257,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.2932330827067669</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2199,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.2923076923076923</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2225,21 +2309,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.2909090909090909</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2251,21 +2335,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.2857142857142857</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2277,21 +2361,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.2755651237890204</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L51">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2303,21 +2387,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>673</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.2741935483870968</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2329,21 +2413,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.2661870503597122</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="L53">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2355,21 +2439,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.2649006622516556</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L54">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2381,21 +2465,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.2647058823529412</v>
+        <v>0.25</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2407,21 +2491,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.2638888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2433,21 +2517,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.2631578947368421</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2459,21 +2543,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.25</v>
+        <v>0.2432723358449946</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2485,21 +2569,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>45</v>
+        <v>703</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K59">
-        <v>0.2380952380952381</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2511,47 +2595,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>64</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K60">
-        <v>0.2352941176470588</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L60">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>598</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K61">
-        <v>0.2317073170731707</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L61">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="M61">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2563,47 +2647,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>126</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K62">
-        <v>0.2314814814814815</v>
+        <v>0.215258855585831</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>83</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K63">
-        <v>0.2235294117647059</v>
+        <v>0.2097186700767263</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2615,21 +2699,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>66</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K64">
-        <v>0.2198675496688742</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L64">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="M64">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2641,47 +2725,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>589</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K65">
-        <v>0.2162162162162162</v>
+        <v>0.1962962962962963</v>
       </c>
       <c r="L65">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M65">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="N65">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>290</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K66">
-        <v>0.2162162162162162</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L66">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2693,47 +2777,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K67">
-        <v>0.2142857142857143</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K68">
-        <v>0.2100313479623825</v>
+        <v>0.17</v>
       </c>
       <c r="L68">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2745,21 +2829,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>252</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K69">
-        <v>0.1764705882352941</v>
+        <v>0.1694510739856802</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2771,21 +2855,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>70</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K70">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2797,21 +2881,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>76</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K71">
-        <v>0.1677852348993289</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2823,21 +2907,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K72">
-        <v>0.1644736842105263</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="L72">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2849,21 +2933,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>381</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K73">
-        <v>0.1623931623931624</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M73">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2875,47 +2959,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>98</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K74">
-        <v>0.1615384615384615</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M74">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K75">
-        <v>0.1559633027522936</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2927,21 +3011,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>92</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K76">
-        <v>0.1527446300715991</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L76">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M76">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2953,21 +3037,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>355</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K77">
-        <v>0.15</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L77">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M77">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2979,47 +3063,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>374</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K78">
-        <v>0.1444444444444444</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L78">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>231</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K79">
-        <v>0.1302521008403361</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3031,21 +3115,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K80">
-        <v>0.1296296296296296</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L80">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M80">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3057,47 +3141,47 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>235</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K81">
-        <v>0.1282051282051282</v>
+        <v>0.1152416356877323</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>136</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K82">
-        <v>0.127147766323024</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L82">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M82">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3109,99 +3193,99 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K83">
-        <v>0.1234567901234568</v>
+        <v>0.1020114942528736</v>
       </c>
       <c r="L83">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="N83">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O83">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>142</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K84">
-        <v>0.1192214111922141</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L84">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="M84">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>362</v>
+        <v>965</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K85">
-        <v>0.1186440677966102</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="L85">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M85">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K86">
-        <v>0.1162790697674419</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M86">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3213,47 +3297,47 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>114</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K87">
-        <v>0.1129032258064516</v>
+        <v>0.06839186691312385</v>
       </c>
       <c r="L87">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M87">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>220</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K88">
-        <v>0.1090909090909091</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L88">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M88">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3265,345 +3349,137 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>147</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K89">
-        <v>0.1083743842364532</v>
+        <v>0.06333973128598848</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M89">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>181</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K90">
-        <v>0.09803921568627451</v>
+        <v>0.05569007263922518</v>
       </c>
       <c r="L90">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M90">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>138</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K91">
-        <v>0.09562841530054644</v>
+        <v>0.05203816131830009</v>
       </c>
       <c r="L91">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M91">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>331</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K92">
-        <v>0.08309990662931839</v>
+        <v>0.04834605597964377</v>
       </c>
       <c r="L92">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N92">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O92">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>982</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K93">
-        <v>0.08201438848920864</v>
+        <v>0.02763157894736842</v>
       </c>
       <c r="L93">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M93">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N93">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="O93">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K94">
-        <v>0.06642066420664207</v>
-      </c>
-      <c r="L94">
-        <v>18</v>
-      </c>
-      <c r="M94">
-        <v>19</v>
-      </c>
-      <c r="N94">
-        <v>0.95</v>
-      </c>
-      <c r="O94">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K95">
-        <v>0.06099815157116451</v>
-      </c>
-      <c r="L95">
-        <v>33</v>
-      </c>
-      <c r="M95">
-        <v>34</v>
-      </c>
-      <c r="N95">
-        <v>0.97</v>
-      </c>
-      <c r="O95">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K96">
-        <v>0.05729166666666666</v>
-      </c>
-      <c r="L96">
-        <v>66</v>
-      </c>
-      <c r="M96">
-        <v>71</v>
-      </c>
-      <c r="N96">
-        <v>0.93</v>
-      </c>
-      <c r="O96">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P96" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="97" spans="10:17">
-      <c r="J97" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K97">
-        <v>0.0558766859344894</v>
-      </c>
-      <c r="L97">
-        <v>29</v>
-      </c>
-      <c r="M97">
-        <v>32</v>
-      </c>
-      <c r="N97">
-        <v>0.91</v>
-      </c>
-      <c r="O97">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P97" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q97">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="98" spans="10:17">
-      <c r="J98" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K98">
-        <v>0.05097087378640777</v>
-      </c>
-      <c r="L98">
-        <v>21</v>
-      </c>
-      <c r="M98">
-        <v>23</v>
-      </c>
-      <c r="N98">
-        <v>0.91</v>
-      </c>
-      <c r="O98">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P98" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q98">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="99" spans="10:17">
-      <c r="J99" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K99">
-        <v>0.04945054945054945</v>
-      </c>
-      <c r="L99">
-        <v>18</v>
-      </c>
-      <c r="M99">
-        <v>19</v>
-      </c>
-      <c r="N99">
-        <v>0.95</v>
-      </c>
-      <c r="O99">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P99" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q99">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="100" spans="10:17">
-      <c r="J100" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K100">
-        <v>0.04591836734693878</v>
-      </c>
-      <c r="L100">
-        <v>18</v>
-      </c>
-      <c r="M100">
-        <v>20</v>
-      </c>
-      <c r="N100">
-        <v>0.9</v>
-      </c>
-      <c r="O100">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P100" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q100">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="101" spans="10:17">
-      <c r="J101" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K101">
-        <v>0.0237467018469657</v>
-      </c>
-      <c r="L101">
-        <v>18</v>
-      </c>
-      <c r="M101">
-        <v>27</v>
-      </c>
-      <c r="N101">
-        <v>0.67</v>
-      </c>
-      <c r="O101">
-        <v>0.33</v>
-      </c>
-      <c r="P101" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q101">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
